--- a/op.xlsx
+++ b/op.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\quartus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87651E5-027F-4AC9-8E00-AB6E4EBB863D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E76A07E-6EEB-4F32-968D-9281A0C18189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="2100" windowWidth="20235" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23" yWindow="8" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>r1 3bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,10 @@
   </si>
   <si>
     <t>01111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,7 +684,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -838,7 +843,9 @@
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
@@ -852,7 +859,9 @@
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">

--- a/op.xlsx
+++ b/op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E76A07E-6EEB-4F32-968D-9281A0C18189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C4107-7A3E-4222-BD27-9B1DA2E3852D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23" yWindow="8" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10575" yWindow="2850" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>r1 3bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,18 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>beq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,11 +222,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$0=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$7返回地址</t>
+    <t>op 5bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110000000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1==r2? Goto PC+num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mflo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻址方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即数寻址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,63 +350,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000 000 001 010 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op 5bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000101000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110000000100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1==r2? Goto PC+num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11001</t>
+    <t>addi 0 1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基址偏移寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw 0 1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc相对寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq 0 1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,55 +386,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mfhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mflo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
+    <t>beqz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接寻址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a*b=&gt;hi,lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a/b=lo, 余数hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1=hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1=lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptint r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1==0? Goto PC+num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1!=0? Goto PC+num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,15 +765,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.86328125" customWidth="1"/>
     <col min="7" max="7" width="18.265625" customWidth="1"/>
@@ -698,10 +782,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -715,18 +799,18 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -740,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -750,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -763,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -776,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -787,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -798,24 +882,24 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -833,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -841,15 +925,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -857,15 +941,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -886,12 +970,12 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -900,7 +984,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -916,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -925,23 +1009,23 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -950,16 +1034,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <v>6020</v>
@@ -975,70 +1059,84 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1051,10 +1149,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -1063,21 +1161,21 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1086,24 +1184,26 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1114,29 +1214,29 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1146,20 +1246,12 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1169,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -1177,23 +1269,100 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1">
         <v>11010</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/op.xlsx
+++ b/op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C4107-7A3E-4222-BD27-9B1DA2E3852D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A5B8A4-6E5B-43AA-A185-83B6EC64E88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="2850" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15323" yWindow="1740" windowWidth="19184" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>r1 3bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,21 @@
   </si>
   <si>
     <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw a * *  nop add * * a</t>
+  </si>
+  <si>
+    <t>beq * * * nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1365,6 +1380,22 @@
         <v>84</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/op.xlsx
+++ b/op.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\quartus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68AF349-44F0-4855-AF3A-FDB148F33A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A5B8A4-6E5B-43AA-A185-83B6EC64E88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15323" yWindow="1740" windowWidth="19184" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>r1 3bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,51 +442,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分支延迟缩短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j 流水线不暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr beq bne 流水线暂停1tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据转发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alu-&gt;alu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ram-&gt;alu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ram-ram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线不暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线暂停1tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘法器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8bit*8bit=16bit 华莱士乘法器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mips五级流水架构&amp;&amp;指令集</t>
+    <t>nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw a * *  nop add * * a</t>
+  </si>
+  <si>
+    <t>beq * * * nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1412,57 +1380,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
